--- a/mod/z02_clipit_api/libraries/reflection_palette/reflection_palette_en.xlsx
+++ b/mod/z02_clipit_api/libraries/reflection_palette/reflection_palette_en.xlsx
@@ -397,9 +397,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
